--- a/data/dosya_bilgiler.xlsx
+++ b/data/dosya_bilgiler.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokhan.usta\Desktop\app_bilirkisi\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokhan.usta\Desktop\ProInsure\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AA2AB5-CEF9-43FC-B67C-9293B771D1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F5487D-B472-4BF3-BED6-35E5E6C84D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="21630" windowHeight="9840" xr2:uid="{FDCA984E-B360-4523-ACB0-EAF1AAE9C561}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="25035" windowHeight="11535" activeTab="1" xr2:uid="{FDCA984E-B360-4523-ACB0-EAF1AAE9C561}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="destek" sheetId="2" r:id="rId2"/>
+    <sheet name="Sayfa2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>Cinsiyet</t>
   </si>
@@ -93,6 +95,111 @@
   </si>
   <si>
     <t>Bakıcı_Gideri_Süresi_(gun)</t>
+  </si>
+  <si>
+    <t>Es</t>
+  </si>
+  <si>
+    <t>EsAd</t>
+  </si>
+  <si>
+    <t>EsDT</t>
+  </si>
+  <si>
+    <t>Cocuksay</t>
+  </si>
+  <si>
+    <t>Cocuk1_Ad</t>
+  </si>
+  <si>
+    <t>Cocuk1_DT</t>
+  </si>
+  <si>
+    <t>Cocuk2_Ad</t>
+  </si>
+  <si>
+    <t>Cocuk2_DT</t>
+  </si>
+  <si>
+    <t>Cocuk3_Ad</t>
+  </si>
+  <si>
+    <t>Cocuk3_DT</t>
+  </si>
+  <si>
+    <t>Cocuk4_Ad</t>
+  </si>
+  <si>
+    <t>Cocuk4_DT</t>
+  </si>
+  <si>
+    <t>Cocuk5_Ad</t>
+  </si>
+  <si>
+    <t>Cocuk5_DT</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>AnneAd</t>
+  </si>
+  <si>
+    <t>AnneDT</t>
+  </si>
+  <si>
+    <t>Baba</t>
+  </si>
+  <si>
+    <t>BabaAd</t>
+  </si>
+  <si>
+    <t>BabaDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kusur_Oranı </t>
+  </si>
+  <si>
+    <t>Yunus ÖZTÜRK</t>
+  </si>
+  <si>
+    <t>Erkek</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>Elif ÖZTÜRK</t>
+  </si>
+  <si>
+    <t>Alparslan ÖZTÜRK</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Hatice ÖZTÜRK</t>
+  </si>
+  <si>
+    <t>Yok</t>
+  </si>
+  <si>
+    <t>Nimet AYRIÇAL</t>
+  </si>
+  <si>
+    <t>Bekir AYRIÇAL</t>
+  </si>
+  <si>
+    <t>Tuğba AYRIÇAL</t>
+  </si>
+  <si>
+    <t>Hava DUVAR</t>
+  </si>
+  <si>
+    <t>Rahim DUVAR</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -151,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -169,6 +276,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,9 +296,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -228,7 +336,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -334,7 +442,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,7 +584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -486,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC1ECA4-8643-4C41-A9FC-31620795CC96}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -593,4 +701,379 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7E1469-5423-4871-A537-FD77751D4660}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="28" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>151301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7">
+        <v>27519</v>
+      </c>
+      <c r="E2" s="7">
+        <v>45037</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="7">
+        <v>24067</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="7">
+        <v>37798</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="7">
+        <v>45502</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="7">
+        <v>45502</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>45502</v>
+      </c>
+      <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="7">
+        <v>45502</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="7">
+        <v>19382</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>18936</v>
+      </c>
+      <c r="Z2">
+        <v>100</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8514528-31CA-48BF-B7C8-7753A963469E}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="28" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>151301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7">
+        <v>34810</v>
+      </c>
+      <c r="E2" s="7">
+        <v>45318</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="7">
+        <v>36264</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="7">
+        <v>45128</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="7">
+        <v>45499</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="7">
+        <v>45499</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>45499</v>
+      </c>
+      <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="7">
+        <v>45499</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="7">
+        <v>26725</v>
+      </c>
+      <c r="W2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>45499</v>
+      </c>
+      <c r="Z2">
+        <v>100</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/dosya_bilgiler.xlsx
+++ b/data/dosya_bilgiler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokhan.usta\Desktop\ProInsure\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F5487D-B472-4BF3-BED6-35E5E6C84D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71045FE-14FE-458F-BC9A-92C60EBC1F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1170" windowWidth="25035" windowHeight="11535" activeTab="1" xr2:uid="{FDCA984E-B360-4523-ACB0-EAF1AAE9C561}"/>
+    <workbookView xWindow="900" yWindow="2475" windowWidth="26760" windowHeight="12420" activeTab="1" xr2:uid="{FDCA984E-B360-4523-ACB0-EAF1AAE9C561}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>Cinsiyet</t>
   </si>
@@ -184,22 +184,10 @@
     <t>Yok</t>
   </si>
   <si>
-    <t>Nimet AYRIÇAL</t>
-  </si>
-  <si>
-    <t>Bekir AYRIÇAL</t>
-  </si>
-  <si>
-    <t>Tuğba AYRIÇAL</t>
-  </si>
-  <si>
-    <t>Hava DUVAR</t>
-  </si>
-  <si>
-    <t>Rahim DUVAR</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testtest</t>
   </si>
 </sst>
 </file>
@@ -705,10 +693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7E1469-5423-4871-A537-FD77751D4660}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,10 +799,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="7">
-        <v>27519</v>
+        <v>15862</v>
       </c>
       <c r="E2" s="7">
-        <v>45037</v>
+        <v>45357</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -823,16 +811,16 @@
         <v>49</v>
       </c>
       <c r="H2" s="7">
-        <v>24067</v>
+        <v>23530</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K2" s="7">
-        <v>37798</v>
+        <v>45502</v>
       </c>
       <c r="L2" t="s">
         <v>45</v>
@@ -859,33 +847,28 @@
         <v>45502</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="V2" s="7">
-        <v>19382</v>
+        <v>45502</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="X2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="7">
-        <v>18936</v>
+        <v>45502</v>
       </c>
       <c r="Z2">
         <v>100</v>
       </c>
       <c r="AA2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="W11" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
